--- a/test/fixtures/data.xlsx
+++ b/test/fixtures/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masanori/workspace/tool_web2pdf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masanori/workspace/tool_web2pdf/test/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E9F59B5-9907-714E-9A39-3156305DD497}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869C87BA-C4C3-2047-99C5-947B11F0B91B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{C5535A31-046C-F349-A9A8-6A46B59A50D3}"/>
   </bookViews>
@@ -37,13 +37,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>URL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -67,6 +60,10 @@
   </si>
   <si>
     <t>https://www.goo.ne.jp/</t>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -436,7 +433,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -446,10 +443,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -457,10 +454,10 @@
         <v>3333</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -468,10 +465,10 @@
         <v>4444</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -479,10 +476,10 @@
         <v>5555</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
